--- a/World_Indices_List.xlsx
+++ b/World_Indices_List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="269">
   <si>
     <t>Sr No</t>
   </si>
@@ -824,6 +824,9 @@
   </si>
   <si>
     <t>TUR</t>
+  </si>
+  <si>
+    <t>Nasdaq 100</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1194,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B61" sqref="A1:D61"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>268</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>

--- a/World_Indices_List.xlsx
+++ b/World_Indices_List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="268">
   <si>
     <t>Sr No</t>
   </si>
@@ -452,9 +452,6 @@
   </si>
   <si>
     <t>Qatar</t>
-  </si>
-  <si>
-    <t>QARUSD=X</t>
   </si>
   <si>
     <t>FTSE Singapore</t>
@@ -1191,11 +1188,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1239,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -1715,7 +1710,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f t="shared" ref="A35:A61" si="1">A34+1</f>
+        <f t="shared" ref="A35:A60" si="1">A34+1</f>
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2049,13 +2044,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2064,13 +2059,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2079,13 +2074,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2097,25 +2092,10 @@
         <v>151</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C61" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2127,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2667,13 +2647,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2682,13 +2662,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2697,7 +2677,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>89</v>
@@ -2742,10 +2722,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2753,7 +2733,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2761,7 +2741,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2769,7 +2749,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2777,7 +2757,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2785,7 +2765,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2793,7 +2773,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2801,7 +2781,7 @@
         <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2809,7 +2789,7 @@
         <v>50</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2817,7 +2797,7 @@
         <v>60</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2825,7 +2805,7 @@
         <v>66</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2833,7 +2813,7 @@
         <v>69</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2841,7 +2821,7 @@
         <v>72</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2849,7 +2829,7 @@
         <v>75</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2857,7 +2837,7 @@
         <v>81</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2865,7 +2845,7 @@
         <v>84</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2873,7 +2853,7 @@
         <v>87</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2881,7 +2861,7 @@
         <v>90</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2889,7 +2869,7 @@
         <v>93</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2897,7 +2877,7 @@
         <v>96</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2905,7 +2885,7 @@
         <v>100</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2913,7 +2893,7 @@
         <v>106</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2921,7 +2901,7 @@
         <v>115</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2929,7 +2909,7 @@
         <v>118</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2937,23 +2917,23 @@
         <v>135</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2961,31 +2941,31 @@
         <v>141</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3008,117 +2988,117 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3178,16 +3158,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3204,7 +3184,7 @@
         <v>-95.712890999999999</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F2" s="3">
         <v>840</v>
@@ -3230,7 +3210,7 @@
         <v>-95.712890999999999</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F3" s="3">
         <v>840</v>
@@ -3256,7 +3236,7 @@
         <v>-95.712890999999999</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F4" s="3">
         <v>840</v>
@@ -3282,7 +3262,7 @@
         <v>-106.346771</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F5" s="3">
         <v>124</v>
@@ -3308,7 +3288,7 @@
         <v>-51.925280000000001</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F6" s="3">
         <v>76</v>
@@ -3334,7 +3314,7 @@
         <v>-102.552784</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F7" s="3">
         <v>484</v>
@@ -3360,7 +3340,7 @@
         <v>10.451525999999999</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F8" s="3">
         <v>276</v>
@@ -3386,7 +3366,7 @@
         <v>-3.4359730000000002</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F9" s="3">
         <v>826</v>
@@ -3412,7 +3392,7 @@
         <v>2.213749</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F10" s="3">
         <v>250</v>
@@ -3438,7 +3418,7 @@
         <v>10.451525999999999</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F11" s="3">
         <v>276</v>
@@ -3464,7 +3444,7 @@
         <v>5.2912660000000002</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F12" s="3">
         <v>528</v>
@@ -3490,7 +3470,7 @@
         <v>-3.7492200000000002</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F13" s="3">
         <v>724</v>
@@ -3516,7 +3496,7 @@
         <v>12.56738</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F14" s="3">
         <v>380</v>
@@ -3542,7 +3522,7 @@
         <v>8.2275120000000008</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F15" s="3">
         <v>756</v>
@@ -3568,7 +3548,7 @@
         <v>9.5017849999999999</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F16" s="3">
         <v>208</v>
@@ -3594,7 +3574,7 @@
         <v>105.31875599999999</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F17" s="3">
         <v>643</v>
@@ -3620,7 +3600,7 @@
         <v>45.079161999999997</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F18" s="3">
         <v>682</v>
@@ -3646,7 +3626,7 @@
         <v>138.25292400000001</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F19" s="3">
         <v>392</v>
@@ -3672,7 +3652,7 @@
         <v>133.775136</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F20" s="3">
         <v>36</v>
@@ -3698,7 +3678,7 @@
         <v>174.88597100000001</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F21" s="3">
         <v>554</v>
@@ -3724,7 +3704,7 @@
         <v>104.195397</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F22" s="3">
         <v>156</v>
@@ -3750,7 +3730,7 @@
         <v>104.195397</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F23" s="3">
         <v>156</v>
@@ -3776,7 +3756,7 @@
         <v>114.109497</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F24" s="3">
         <v>344</v>
@@ -3802,7 +3782,7 @@
         <v>120.960515</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F25" s="3">
         <v>158</v>
@@ -3828,7 +3808,7 @@
         <v>100.992541</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F26" s="3">
         <v>764</v>
@@ -3854,7 +3834,7 @@
         <v>127.76692199999999</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F27" s="3">
         <v>410</v>
@@ -3880,7 +3860,7 @@
         <v>113.92132700000001</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F28" s="3">
         <v>360</v>
@@ -3906,7 +3886,7 @@
         <v>78.962879999999998</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F29" s="3">
         <v>356</v>
@@ -3932,7 +3912,7 @@
         <v>78.962879999999998</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F30" s="3">
         <v>356</v>
@@ -3958,7 +3938,7 @@
         <v>121.774017</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F31" s="3">
         <v>608</v>
@@ -3984,7 +3964,7 @@
         <v>108.277199</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F32" s="3">
         <v>704</v>
@@ -4010,7 +3990,7 @@
         <v>-71.542968999999999</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F33" s="3">
         <v>152</v>
@@ -4036,7 +4016,7 @@
         <v>-74.297332999999995</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F34" s="3">
         <v>170</v>
@@ -4062,7 +4042,7 @@
         <v>101.97576599999999</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F35" s="3">
         <v>458</v>
@@ -4076,10 +4056,10 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="C36" s="3">
         <v>1.3520829999999999</v>
@@ -4088,7 +4068,7 @@
         <v>103.819836</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F36" s="3">
         <v>702</v>
@@ -4102,10 +4082,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="C37" s="3">
         <v>-30.559481999999999</v>
@@ -4114,7 +4094,7 @@
         <v>22.937505999999999</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F37" s="3">
         <v>710</v>
@@ -4128,7 +4108,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
@@ -4140,7 +4120,7 @@
         <v>127.76692199999999</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F38" s="3">
         <v>410</v>
@@ -4166,7 +4146,7 @@
         <v>-75.015152</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F39" s="3">
         <v>604</v>
@@ -4324,23 +4304,23 @@
     </row>
     <row r="58" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J58" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="59" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J59" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K59" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="60" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J60" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>89</v>
@@ -4348,10 +4328,10 @@
     </row>
     <row r="61" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J61" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K61" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4385,16 +4365,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4411,7 +4391,7 @@
         <v>133.775136</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F2" s="3">
         <v>36</v>
@@ -4431,7 +4411,7 @@
         <v>13.333299999999999</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F3" s="3">
         <v>40</v>
@@ -4451,7 +4431,7 @@
         <v>50.55</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F4" s="3">
         <v>48</v>
@@ -4471,7 +4451,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F5" s="3">
         <v>56</v>
@@ -4491,7 +4471,7 @@
         <v>-51.925280000000001</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F6" s="3">
         <v>76</v>
@@ -4511,7 +4491,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F7" s="3">
         <v>100</v>
@@ -4531,7 +4511,7 @@
         <v>-106.346771</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F8" s="3">
         <v>124</v>
@@ -4551,7 +4531,7 @@
         <v>-71.542968999999999</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F9" s="3">
         <v>152</v>
@@ -4571,7 +4551,7 @@
         <v>104.195397</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F10" s="3">
         <v>156</v>
@@ -4591,7 +4571,7 @@
         <v>-74.297332999999995</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F11" s="3">
         <v>170</v>
@@ -4611,7 +4591,7 @@
         <v>33</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F12" s="3">
         <v>196</v>
@@ -4631,7 +4611,7 @@
         <v>15.5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F13" s="3">
         <v>203</v>
@@ -4651,7 +4631,7 @@
         <v>9.5017849999999999</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F14" s="3">
         <v>208</v>
@@ -4671,7 +4651,7 @@
         <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F15" s="3">
         <v>818</v>
@@ -4691,7 +4671,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F16" s="3">
         <v>246</v>
@@ -4711,7 +4691,7 @@
         <v>2.213749</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F17" s="3">
         <v>250</v>
@@ -4731,7 +4711,7 @@
         <v>10.451525999999999</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F18" s="3">
         <v>276</v>
@@ -4751,7 +4731,7 @@
         <v>22</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F19" s="3">
         <v>300</v>
@@ -4771,7 +4751,7 @@
         <v>114.109497</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F20" s="3">
         <v>344</v>
@@ -4791,7 +4771,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F21" s="3">
         <v>348</v>
@@ -4811,7 +4791,7 @@
         <v>78.962879999999998</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F22" s="3">
         <v>356</v>
@@ -4831,7 +4811,7 @@
         <v>113.92132700000001</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F23" s="3">
         <v>360</v>
@@ -4851,7 +4831,7 @@
         <v>-8</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F24" s="3">
         <v>372</v>
@@ -4871,7 +4851,7 @@
         <v>12.56738</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F25" s="3">
         <v>380</v>
@@ -4891,7 +4871,7 @@
         <v>138.25292400000001</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F26" s="3">
         <v>392</v>
@@ -4911,7 +4891,7 @@
         <v>101.97576599999999</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F27" s="3">
         <v>458</v>
@@ -4931,7 +4911,7 @@
         <v>-102.552784</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F28" s="3">
         <v>484</v>
@@ -4951,7 +4931,7 @@
         <v>5.2912660000000002</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F29" s="3">
         <v>528</v>
@@ -4971,7 +4951,7 @@
         <v>174.88597100000001</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F30" s="3">
         <v>554</v>
@@ -4991,7 +4971,7 @@
         <v>57</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F31" s="3">
         <v>512</v>
@@ -5011,7 +4991,7 @@
         <v>70</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F32" s="3">
         <v>586</v>
@@ -5031,7 +5011,7 @@
         <v>-75.015152</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F33" s="3">
         <v>604</v>
@@ -5051,7 +5031,7 @@
         <v>121.774017</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F34" s="3">
         <v>608</v>
@@ -5071,7 +5051,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F35" s="3">
         <v>616</v>
@@ -5091,7 +5071,7 @@
         <v>-8</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F36" s="3">
         <v>620</v>
@@ -5111,7 +5091,7 @@
         <v>51.25</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F37" s="3">
         <v>634</v>
@@ -5131,7 +5111,7 @@
         <v>105.31875599999999</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F38" s="3">
         <v>643</v>
@@ -5151,7 +5131,7 @@
         <v>45.079161999999997</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F39" s="3">
         <v>682</v>
@@ -5159,10 +5139,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="C40" s="3">
         <v>1.3520829999999999</v>
@@ -5171,7 +5151,7 @@
         <v>103.819836</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F40" s="3">
         <v>702</v>
@@ -5179,10 +5159,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="C41" s="3">
         <v>-30.559481999999999</v>
@@ -5191,7 +5171,7 @@
         <v>22.937505999999999</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F41" s="3">
         <v>710</v>
@@ -5211,7 +5191,7 @@
         <v>127.76692199999999</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F42" s="3">
         <v>410</v>
@@ -5231,7 +5211,7 @@
         <v>-3.7492200000000002</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F43" s="3">
         <v>724</v>
@@ -5251,7 +5231,7 @@
         <v>15</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F44" s="3">
         <v>752</v>
@@ -5271,7 +5251,7 @@
         <v>8.2275120000000008</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F45" s="3">
         <v>756</v>
@@ -5291,7 +5271,7 @@
         <v>120.960515</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F46" s="3">
         <v>158</v>
@@ -5311,7 +5291,7 @@
         <v>100.992541</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F47" s="3">
         <v>764</v>
@@ -5319,10 +5299,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="C48" s="3">
         <v>34</v>
@@ -5331,7 +5311,7 @@
         <v>9</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F48" s="3">
         <v>788</v>
@@ -5351,7 +5331,7 @@
         <v>35</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F49" s="3">
         <v>792</v>
@@ -5371,7 +5351,7 @@
         <v>-3.4359730000000002</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F50" s="3">
         <v>826</v>
@@ -5391,7 +5371,7 @@
         <v>-95.712890999999999</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F51" s="3">
         <v>840</v>
@@ -5411,7 +5391,7 @@
         <v>108.277199</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F52" s="3">
         <v>704</v>

--- a/World_Indices_List.xlsx
+++ b/World_Indices_List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="Sheet0" sheetId="6" r:id="rId6"/>
     <sheet name="iso" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="296">
   <si>
     <t>Sr No</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Sweden</t>
   </si>
   <si>
-    <t>SEKUSD=X</t>
-  </si>
-  <si>
     <t>OMXC25</t>
   </si>
   <si>
@@ -184,18 +181,12 @@
     <t>Poland</t>
   </si>
   <si>
-    <t>PLNUSD=X</t>
-  </si>
-  <si>
     <t>Budapest SE</t>
   </si>
   <si>
     <t>Hungary</t>
   </si>
   <si>
-    <t>HUFUSD=X</t>
-  </si>
-  <si>
     <t>BIST 100</t>
   </si>
   <si>
@@ -331,9 +322,6 @@
     <t>Pakistan</t>
   </si>
   <si>
-    <t>PKRUSD=X</t>
-  </si>
-  <si>
     <t>HNX 30</t>
   </si>
   <si>
@@ -349,18 +337,12 @@
     <t>Bahrain</t>
   </si>
   <si>
-    <t>BHDUSD=X</t>
-  </si>
-  <si>
     <t>BSE SOFIX</t>
   </si>
   <si>
     <t>Bulgaria</t>
   </si>
   <si>
-    <t>BGNUSD=X</t>
-  </si>
-  <si>
     <t>S&amp;P CLX IPSA</t>
   </si>
   <si>
@@ -391,18 +373,12 @@
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>CZKUSD=X</t>
-  </si>
-  <si>
     <t>EGX 30</t>
   </si>
   <si>
     <t>Egypt</t>
   </si>
   <si>
-    <t>EGPUSD=X</t>
-  </si>
-  <si>
     <t>OMX Helsinki 25</t>
   </si>
   <si>
@@ -436,9 +412,6 @@
     <t>Oman</t>
   </si>
   <si>
-    <t>OMRUSD=X</t>
-  </si>
-  <si>
     <t>S&amp;P Lima General</t>
   </si>
   <si>
@@ -481,9 +454,6 @@
     <t>Tunisia</t>
   </si>
   <si>
-    <t>TNDUSD=X</t>
-  </si>
-  <si>
     <t>Canadian Dollar</t>
   </si>
   <si>
@@ -824,6 +794,120 @@
   </si>
   <si>
     <t>Nasdaq 100</t>
+  </si>
+  <si>
+    <t>USD/CAD</t>
+  </si>
+  <si>
+    <t>USD/BRL</t>
+  </si>
+  <si>
+    <t>USD/MXN</t>
+  </si>
+  <si>
+    <t>USD/EUR</t>
+  </si>
+  <si>
+    <t>USD/GBP</t>
+  </si>
+  <si>
+    <t>USD/CHF</t>
+  </si>
+  <si>
+    <t>USD/SEK</t>
+  </si>
+  <si>
+    <t>USD/DKK</t>
+  </si>
+  <si>
+    <t>USD/RUB</t>
+  </si>
+  <si>
+    <t>USD/PLN</t>
+  </si>
+  <si>
+    <t>USD/HUF</t>
+  </si>
+  <si>
+    <t>USD/TRY</t>
+  </si>
+  <si>
+    <t>USD/SAR</t>
+  </si>
+  <si>
+    <t>USD/JPY</t>
+  </si>
+  <si>
+    <t>USD/AUD</t>
+  </si>
+  <si>
+    <t>USD/NZD</t>
+  </si>
+  <si>
+    <t>USD/CNY</t>
+  </si>
+  <si>
+    <t>USD/HKD</t>
+  </si>
+  <si>
+    <t>USD/TWD</t>
+  </si>
+  <si>
+    <t>USD/THB</t>
+  </si>
+  <si>
+    <t>USD/KRW</t>
+  </si>
+  <si>
+    <t>USD/IDR</t>
+  </si>
+  <si>
+    <t>USD/INR</t>
+  </si>
+  <si>
+    <t>USD/PHP</t>
+  </si>
+  <si>
+    <t>USD/PKR</t>
+  </si>
+  <si>
+    <t>USD/VND</t>
+  </si>
+  <si>
+    <t>USD/BHD</t>
+  </si>
+  <si>
+    <t>USD/BGN</t>
+  </si>
+  <si>
+    <t>USD/CLP</t>
+  </si>
+  <si>
+    <t>USD/COP</t>
+  </si>
+  <si>
+    <t>USD/CZK</t>
+  </si>
+  <si>
+    <t>USD/EGP</t>
+  </si>
+  <si>
+    <t>USD/MYR</t>
+  </si>
+  <si>
+    <t>USD/OMR</t>
+  </si>
+  <si>
+    <t>USD/PEN</t>
+  </si>
+  <si>
+    <t>USD/SGD</t>
+  </si>
+  <si>
+    <t>USD/ZAR</t>
+  </si>
+  <si>
+    <t>USD/TND</t>
   </si>
 </sst>
 </file>
@@ -897,6 +981,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -944,7 +1031,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -979,7 +1066,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1192,15 +1279,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1214,7 +1301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1228,13 +1315,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A34" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -1243,7 +1330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1258,7 +1345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1270,10 +1357,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1285,10 +1372,10 @@
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1300,10 +1387,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1315,10 +1402,10 @@
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1330,10 +1417,10 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1345,10 +1432,10 @@
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1360,10 +1447,10 @@
         <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1375,10 +1462,10 @@
         <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1390,10 +1477,10 @@
         <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1405,10 +1492,10 @@
         <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1420,10 +1507,10 @@
         <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1435,10 +1522,10 @@
         <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1450,10 +1537,10 @@
         <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1465,10 +1552,10 @@
         <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1480,622 +1567,622 @@
         <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" ref="A35:A60" si="1">A34+1</f>
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>153</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2107,18 +2194,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +2219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2146,7 +2233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A17" si="0">A2+1</f>
         <v>2</v>
@@ -2161,7 +2248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2176,7 +2263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2191,7 +2278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2206,7 +2293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2221,7 +2308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2236,7 +2323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2251,7 +2338,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2266,7 +2353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2281,7 +2368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2296,7 +2383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2311,7 +2398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2326,7 +2413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2341,364 +2428,364 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f>A17+1</f>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" ref="A19:A39" si="1">A18+1</f>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2714,258 +2801,258 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2981,124 +3068,124 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3114,21 +3201,21 @@
       <selection sqref="A1:C246"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f>Major!A39+1</f>
         <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3144,13 +3231,13 @@
       <selection activeCell="J2" sqref="J2:K61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3158,19 +3245,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3184,7 +3271,7 @@
         <v>-95.712890999999999</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F2" s="3">
         <v>840</v>
@@ -3196,7 +3283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3210,7 +3297,7 @@
         <v>-95.712890999999999</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F3" s="3">
         <v>840</v>
@@ -3222,7 +3309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3236,7 +3323,7 @@
         <v>-95.712890999999999</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F4" s="3">
         <v>840</v>
@@ -3248,7 +3335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3262,7 +3349,7 @@
         <v>-106.346771</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F5" s="3">
         <v>124</v>
@@ -3274,7 +3361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -3288,7 +3375,7 @@
         <v>-51.925280000000001</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F6" s="3">
         <v>76</v>
@@ -3300,7 +3387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -3314,7 +3401,7 @@
         <v>-102.552784</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F7" s="3">
         <v>484</v>
@@ -3326,7 +3413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -3340,7 +3427,7 @@
         <v>10.451525999999999</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F8" s="3">
         <v>276</v>
@@ -3352,7 +3439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -3366,7 +3453,7 @@
         <v>-3.4359730000000002</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F9" s="3">
         <v>826</v>
@@ -3378,7 +3465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -3392,7 +3479,7 @@
         <v>2.213749</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F10" s="3">
         <v>250</v>
@@ -3404,7 +3491,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -3418,7 +3505,7 @@
         <v>10.451525999999999</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F11" s="3">
         <v>276</v>
@@ -3430,7 +3517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -3444,7 +3531,7 @@
         <v>5.2912660000000002</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F12" s="3">
         <v>528</v>
@@ -3456,7 +3543,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -3470,7 +3557,7 @@
         <v>-3.7492200000000002</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F13" s="3">
         <v>724</v>
@@ -3482,7 +3569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -3496,7 +3583,7 @@
         <v>12.56738</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F14" s="3">
         <v>380</v>
@@ -3508,7 +3595,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
@@ -3522,7 +3609,7 @@
         <v>8.2275120000000008</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F15" s="3">
         <v>756</v>
@@ -3534,12 +3621,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C16" s="3">
         <v>56.263919999999999</v>
@@ -3548,7 +3635,7 @@
         <v>9.5017849999999999</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F16" s="3">
         <v>208</v>
@@ -3560,12 +3647,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="C17" s="3">
         <v>61.524009999999997</v>
@@ -3574,7 +3661,7 @@
         <v>105.31875599999999</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F17" s="3">
         <v>643</v>
@@ -3586,12 +3673,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C18" s="3">
         <v>23.885942</v>
@@ -3600,7 +3687,7 @@
         <v>45.079161999999997</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F18" s="3">
         <v>682</v>
@@ -3612,12 +3699,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C19" s="3">
         <v>36.204824000000002</v>
@@ -3626,7 +3713,7 @@
         <v>138.25292400000001</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F19" s="3">
         <v>392</v>
@@ -3638,12 +3725,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C20" s="3">
         <v>-25.274398000000001</v>
@@ -3652,24 +3739,24 @@
         <v>133.775136</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F20" s="3">
         <v>36</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C21" s="3">
         <v>-40.900556999999999</v>
@@ -3678,24 +3765,24 @@
         <v>174.88597100000001</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F21" s="3">
         <v>554</v>
       </c>
       <c r="J21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C22" s="3">
         <v>35.861660000000001</v>
@@ -3704,24 +3791,24 @@
         <v>104.195397</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F22" s="3">
         <v>156</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C23" s="3">
         <v>35.861660000000001</v>
@@ -3730,24 +3817,24 @@
         <v>104.195397</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F23" s="3">
         <v>156</v>
       </c>
       <c r="J23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C24" s="3">
         <v>22.396428</v>
@@ -3756,24 +3843,24 @@
         <v>114.109497</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F24" s="3">
         <v>344</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C25" s="3">
         <v>23.69781</v>
@@ -3782,24 +3869,24 @@
         <v>120.960515</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F25" s="3">
         <v>158</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C26" s="3">
         <v>15.870032</v>
@@ -3808,24 +3895,24 @@
         <v>100.992541</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F26" s="3">
         <v>764</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C27" s="3">
         <v>35.907756999999997</v>
@@ -3834,24 +3921,24 @@
         <v>127.76692199999999</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F27" s="3">
         <v>410</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C28" s="3">
         <v>-0.78927499999999995</v>
@@ -3860,24 +3947,24 @@
         <v>113.92132700000001</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="F28" s="3">
         <v>360</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C29" s="3">
         <v>20.593684</v>
@@ -3886,24 +3973,24 @@
         <v>78.962879999999998</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F29" s="3">
         <v>356</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C30" s="3">
         <v>20.593684</v>
@@ -3912,24 +3999,24 @@
         <v>78.962879999999998</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F30" s="3">
         <v>356</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C31" s="3">
         <v>12.879721</v>
@@ -3938,24 +4025,24 @@
         <v>121.774017</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="F31" s="3">
         <v>608</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C32" s="3">
         <v>14.058324000000001</v>
@@ -3964,24 +4051,24 @@
         <v>108.277199</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F32" s="3">
         <v>704</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C33" s="3">
         <v>-35.675147000000003</v>
@@ -3990,24 +4077,24 @@
         <v>-71.542968999999999</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F33" s="3">
         <v>152</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C34" s="3">
         <v>4.5708679999999999</v>
@@ -4016,24 +4103,24 @@
         <v>-74.297332999999995</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="F34" s="3">
         <v>170</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C35" s="3">
         <v>4.2104840000000001</v>
@@ -4042,24 +4129,24 @@
         <v>101.97576599999999</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F35" s="3">
         <v>458</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C36" s="3">
         <v>1.3520829999999999</v>
@@ -4068,24 +4155,24 @@
         <v>103.819836</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F36" s="3">
         <v>702</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C37" s="3">
         <v>-30.559481999999999</v>
@@ -4094,24 +4181,24 @@
         <v>22.937505999999999</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="F37" s="3">
         <v>710</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C38" s="3">
         <v>35.907756999999997</v>
@@ -4120,24 +4207,24 @@
         <v>127.76692199999999</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F38" s="3">
         <v>410</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C39" s="3">
         <v>-9.1899669999999993</v>
@@ -4146,192 +4233,192 @@
         <v>-75.015152</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F39" s="3">
         <v>604</v>
       </c>
       <c r="J39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J40" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K40" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J41" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J40" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J41" s="2" t="s">
+      <c r="K41" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J42" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J42" s="2" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K43" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K42" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J43" s="2" t="s">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K44" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K43" s="2" t="s">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J45" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J44" s="2" t="s">
+      <c r="K45" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J46" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J45" s="2" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J47" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J46" s="2" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J48" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J47" s="2" t="s">
+    <row r="49" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J49" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="K47" s="2" t="s">
+    </row>
+    <row r="50" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J50" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J48" s="2" t="s">
+      <c r="K50" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J51" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J49" s="2" t="s">
+    <row r="52" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J52" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J50" s="2" t="s">
+    <row r="53" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J53" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K53" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K50" s="2" t="s">
+    </row>
+    <row r="54" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J54" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="51" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J51" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="K54" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J55" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="52" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J52" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K52" s="2" t="s">
+    </row>
+    <row r="56" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J56" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="53" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J53" s="2" t="s">
+      <c r="K56" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K53" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J54" s="2" t="s">
+    </row>
+    <row r="57" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J57" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J55" s="2" t="s">
+    <row r="58" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J58" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K55" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J56" s="2" t="s">
+    </row>
+    <row r="59" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J59" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K59" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K56" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J57" s="2" t="s">
+    </row>
+    <row r="60" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J60" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J61" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="K61" s="2" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J58" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J59" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J60" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J61" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4347,17 +4434,17 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4365,24 +4452,24 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3">
         <v>-25.274398000000001</v>
@@ -4391,13 +4478,13 @@
         <v>133.775136</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F2" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
@@ -4411,18 +4498,18 @@
         <v>13.333299999999999</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F3" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C4" s="3">
         <v>26</v>
@@ -4431,13 +4518,13 @@
         <v>50.55</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F4" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
@@ -4451,13 +4538,13 @@
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F5" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -4471,18 +4558,18 @@
         <v>-51.925280000000001</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F6" s="3">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C7" s="3">
         <v>43</v>
@@ -4491,13 +4578,13 @@
         <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="F7" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -4511,18 +4598,18 @@
         <v>-106.346771</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F8" s="3">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C9" s="3">
         <v>-35.675147000000003</v>
@@ -4531,18 +4618,18 @@
         <v>-71.542968999999999</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F9" s="3">
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C10" s="3">
         <v>35.861660000000001</v>
@@ -4551,18 +4638,18 @@
         <v>104.195397</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F10" s="3">
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C11" s="3">
         <v>4.5708679999999999</v>
@@ -4571,18 +4658,18 @@
         <v>-74.297332999999995</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="F11" s="3">
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C12" s="3">
         <v>35</v>
@@ -4591,18 +4678,18 @@
         <v>33</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="F12" s="3">
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C13" s="3">
         <v>49.75</v>
@@ -4611,18 +4698,18 @@
         <v>15.5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F13" s="3">
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C14" s="3">
         <v>56.263919999999999</v>
@@ -4631,18 +4718,18 @@
         <v>9.5017849999999999</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F14" s="3">
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C15" s="3">
         <v>27</v>
@@ -4651,18 +4738,18 @@
         <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F15" s="3">
         <v>818</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C16" s="3">
         <v>64</v>
@@ -4671,13 +4758,13 @@
         <v>26</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F16" s="3">
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -4691,13 +4778,13 @@
         <v>2.213749</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F17" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -4711,18 +4798,18 @@
         <v>10.451525999999999</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F18" s="3">
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C19" s="3">
         <v>39</v>
@@ -4731,18 +4818,18 @@
         <v>22</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F19" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C20" s="3">
         <v>22.396428</v>
@@ -4751,18 +4838,18 @@
         <v>114.109497</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F20" s="3">
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" s="3">
         <v>47</v>
@@ -4771,18 +4858,18 @@
         <v>20</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F21" s="3">
         <v>348</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C22" s="3">
         <v>20.593684</v>
@@ -4791,18 +4878,18 @@
         <v>78.962879999999998</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F22" s="3">
         <v>356</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C23" s="3">
         <v>-0.78927499999999995</v>
@@ -4811,18 +4898,18 @@
         <v>113.92132700000001</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="F23" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C24" s="3">
         <v>53</v>
@@ -4831,13 +4918,13 @@
         <v>-8</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F24" s="3">
         <v>372</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -4851,18 +4938,18 @@
         <v>12.56738</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F25" s="3">
         <v>380</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C26" s="3">
         <v>36.204824000000002</v>
@@ -4871,18 +4958,18 @@
         <v>138.25292400000001</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F26" s="3">
         <v>392</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C27" s="3">
         <v>4.2104840000000001</v>
@@ -4891,13 +4978,13 @@
         <v>101.97576599999999</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F27" s="3">
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
@@ -4911,13 +4998,13 @@
         <v>-102.552784</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F28" s="3">
         <v>484</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -4931,18 +5018,18 @@
         <v>5.2912660000000002</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F29" s="3">
         <v>528</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C30" s="3">
         <v>-40.900556999999999</v>
@@ -4951,18 +5038,18 @@
         <v>174.88597100000001</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F30" s="3">
         <v>554</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C31" s="3">
         <v>21</v>
@@ -4971,18 +5058,18 @@
         <v>57</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F31" s="3">
         <v>512</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C32" s="3">
         <v>30</v>
@@ -4991,18 +5078,18 @@
         <v>70</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F32" s="3">
         <v>586</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C33" s="3">
         <v>-9.1899669999999993</v>
@@ -5011,18 +5098,18 @@
         <v>-75.015152</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F33" s="3">
         <v>604</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C34" s="3">
         <v>12.879721</v>
@@ -5031,18 +5118,18 @@
         <v>121.774017</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="F34" s="3">
         <v>608</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C35" s="3">
         <v>52</v>
@@ -5051,13 +5138,13 @@
         <v>20</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F35" s="3">
         <v>616</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -5071,18 +5158,18 @@
         <v>-8</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F36" s="3">
         <v>620</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C37" s="3">
         <v>25.5</v>
@@ -5091,18 +5178,18 @@
         <v>51.25</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="F37" s="3">
         <v>634</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="C38" s="3">
         <v>61.524009999999997</v>
@@ -5111,18 +5198,18 @@
         <v>105.31875599999999</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F38" s="3">
         <v>643</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C39" s="3">
         <v>23.885942</v>
@@ -5131,18 +5218,18 @@
         <v>45.079161999999997</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F39" s="3">
         <v>682</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C40" s="3">
         <v>1.3520829999999999</v>
@@ -5151,18 +5238,18 @@
         <v>103.819836</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F40" s="3">
         <v>702</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C41" s="3">
         <v>-30.559481999999999</v>
@@ -5171,18 +5258,18 @@
         <v>22.937505999999999</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="F41" s="3">
         <v>710</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C42" s="3">
         <v>35.907756999999997</v>
@@ -5191,13 +5278,13 @@
         <v>127.76692199999999</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F42" s="3">
         <v>410</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>29</v>
       </c>
@@ -5211,13 +5298,13 @@
         <v>-3.7492200000000002</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F43" s="3">
         <v>724</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -5231,13 +5318,13 @@
         <v>15</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="F44" s="3">
         <v>752</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>33</v>
       </c>
@@ -5251,18 +5338,18 @@
         <v>8.2275120000000008</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F45" s="3">
         <v>756</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C46" s="3">
         <v>23.69781</v>
@@ -5271,18 +5358,18 @@
         <v>120.960515</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F46" s="3">
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C47" s="3">
         <v>15.870032</v>
@@ -5291,18 +5378,18 @@
         <v>100.992541</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F47" s="3">
         <v>764</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C48" s="3">
         <v>34</v>
@@ -5311,18 +5398,18 @@
         <v>9</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F48" s="3">
         <v>788</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C49" s="3">
         <v>39</v>
@@ -5331,13 +5418,13 @@
         <v>35</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F49" s="3">
         <v>792</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>21</v>
       </c>
@@ -5351,13 +5438,13 @@
         <v>-3.4359730000000002</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F50" s="3">
         <v>826</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>4</v>
       </c>
@@ -5371,18 +5458,18 @@
         <v>-95.712890999999999</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F51" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C52" s="3">
         <v>14.058324000000001</v>
@@ -5391,7 +5478,7 @@
         <v>108.277199</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F52" s="3">
         <v>704</v>
